--- a/deliverables.xlsx
+++ b/deliverables.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="21075" windowHeight="9270"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="owssvr" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="owssvr" localSheetId="0" hidden="1">owssvr!$A$1:$E$36</definedName>
+    <definedName name="owssvr" localSheetId="0" hidden="1">owssvr!$A$1:$E$42</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -18,14 +18,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\bfarhoudi\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\2Q5N3OEK\owssvr.iqy" keepAlive="1" name="owssvr" type="5" refreshedVersion="4" minRefreshableVersion="3" saveData="1">
+  <connection id="1" odcFile="C:\Users\bfarhoudi\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\QSIS11JJ\owssvr.iqy" keepAlive="1" name="owssvr" type="5" refreshedVersion="4" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;{BC00FD7C-ACD9-4252-8B8E-5F6A3A914ED2}&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;{71557B2C-B9DD-4EA6-B355-882D363C0D13}&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://share.ahsnet.ca/teams/kmqa/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;/teams/kmqa/Lists/Deliverables&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="79">
   <si>
     <t>Deliverables</t>
   </si>
@@ -66,6 +66,15 @@
     <t>_Starting Over;#24;#SharePoint;#29</t>
   </si>
   <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>_Starting Over;#32;#Audio Recording;#47</t>
+  </si>
+  <si>
+    <t>_Starting Over;#24;#Adobe Audition;#54</t>
+  </si>
+  <si>
     <t>Blog</t>
   </si>
   <si>
@@ -111,7 +120,13 @@
     <t>eBook</t>
   </si>
   <si>
-    <t>_Starting Over;#24;#Adobe Acrobat 9 Pro;#34</t>
+    <t>_Starting Over;#24;#Adobe Acrobat Pro;#34</t>
+  </si>
+  <si>
+    <t>Environmental Scan</t>
+  </si>
+  <si>
+    <t>_Starting Over;#32;#Research;#39</t>
   </si>
   <si>
     <t>Evaluation Plan</t>
@@ -120,6 +135,9 @@
     <t>_Starting Over;#32;#Evaluation;#44</t>
   </si>
   <si>
+    <t>Evidence Summary</t>
+  </si>
+  <si>
     <t>HTA</t>
   </si>
   <si>
@@ -132,6 +150,12 @@
     <t>_Starting Over;#32;#Communication;#42</t>
   </si>
   <si>
+    <t>Information Sheet</t>
+  </si>
+  <si>
+    <t>_Starting Over;#24;#Adobe Acrobat Pro;#34;#Designer ES2;#52;#Adobe Lifecycle;#51;#Microsoft Publisher;#53</t>
+  </si>
+  <si>
     <t>Job Aid</t>
   </si>
   <si>
@@ -147,9 +171,6 @@
     <t>Knowledge Repositories</t>
   </si>
   <si>
-    <t>_Starting Over;#32;#Research;#39</t>
-  </si>
-  <si>
     <t>Lessons Learned Repository</t>
   </si>
   <si>
@@ -162,10 +183,13 @@
     <t>_Starting Over;#24;#KRS Lib Guides;#43</t>
   </si>
   <si>
+    <t>Literature Search</t>
+  </si>
+  <si>
     <t>Memes and Vemes</t>
   </si>
   <si>
-    <t>New Letters</t>
+    <t>Newsletter</t>
   </si>
   <si>
     <t>Online Module</t>
@@ -222,6 +246,9 @@
     <t>_Starting Over;#24;#Survey Net;#31</t>
   </si>
   <si>
+    <t>Systematic Review</t>
+  </si>
+  <si>
     <t>Toolbox: Methods, Methodologies, Tools</t>
   </si>
   <si>
@@ -234,7 +261,7 @@
     <t>_Starting Over;#32;#Simulation;#40;#Videography;#41</t>
   </si>
   <si>
-    <t>_Starting Over;#24;#Adobe;#44;#Camtasia;#45;#Snagit;#46</t>
+    <t>_Starting Over;#24;#Adobe;#44;#Camtasia;#45;#Snagit;#46;#Go Animate;#55</t>
   </si>
 </sst>
 </file>
@@ -805,8 +832,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_owssvr" displayName="Table_owssvr" ref="A1:E36" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_owssvr" displayName="Table_owssvr" ref="A1:E42" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E42"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="Title" name="Deliverables" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" uniqueName="Related_x005f_x0020_Business_x005f_x0020_Nee" name="Related Business Need" queryTableFieldId="2"/>
@@ -1105,7 +1132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1177,7 +1204,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -1188,10 +1215,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1205,13 +1232,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -1225,10 +1252,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -1239,13 +1266,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -1259,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -1273,13 +1300,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -1293,10 +1320,10 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
@@ -1307,13 +1334,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -1324,13 +1351,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
@@ -1341,10 +1368,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1358,10 +1385,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1375,13 +1402,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
@@ -1392,13 +1419,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -1415,7 +1442,7 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
@@ -1429,10 +1456,10 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
@@ -1446,10 +1473,10 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
@@ -1460,13 +1487,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
@@ -1477,13 +1504,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
@@ -1494,13 +1521,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
@@ -1511,13 +1538,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
@@ -1528,13 +1555,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
@@ -1545,13 +1572,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
@@ -1562,13 +1589,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
@@ -1579,13 +1606,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
         <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
@@ -1596,13 +1623,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
@@ -1613,13 +1640,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
@@ -1630,13 +1657,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
@@ -1647,10 +1674,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -1664,13 +1691,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
@@ -1681,13 +1708,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
@@ -1698,13 +1725,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>9</v>
@@ -1715,18 +1742,120 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/deliverables.xlsx
+++ b/deliverables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="owssvr" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\bfarhoudi\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\QSIS11JJ\owssvr.iqy" keepAlive="1" name="owssvr" type="5" refreshedVersion="4" minRefreshableVersion="3" saveData="1">
+  <connection id="1" odcFile="C:\Users\bfarhoudi\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\NMA31CL3\owssvr.iqy" keepAlive="1" name="owssvr" type="5" refreshedVersion="4" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;{BC00FD7C-ACD9-4252-8B8E-5F6A3A914ED2}&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;{71557B2C-B9DD-4EA6-B355-882D363C0D13}&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://share.ahsnet.ca/teams/kmqa/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;/teams/kmqa/Lists/Deliverables&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
@@ -261,7 +261,7 @@
     <t>_Starting Over;#32;#Simulation;#40;#Videography;#41</t>
   </si>
   <si>
-    <t>_Starting Over;#24;#Adobe;#44;#Camtasia;#45;#Snagit;#46;#Go Animate;#55</t>
+    <t>_Starting Over;#24;#Adobe - Captivate;#44;#Camtasia;#45;#Snagit;#46;#Go Animate;#55</t>
   </si>
 </sst>
 </file>

--- a/deliverables.xlsx
+++ b/deliverables.xlsx
@@ -18,7 +18,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\bfarhoudi\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\NMA31CL3\owssvr.iqy" keepAlive="1" name="owssvr" type="5" refreshedVersion="4" minRefreshableVersion="3" saveData="1">
+  <connection id="1" odcFile="C:\Users\bfarhoudi\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\63ETHHNT\owssvr.iqy" keepAlive="1" name="owssvr" type="5" refreshedVersion="4" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;{BC00FD7C-ACD9-4252-8B8E-5F6A3A914ED2}&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;{71557B2C-B9DD-4EA6-B355-882D363C0D13}&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://share.ahsnet.ca/teams/kmqa/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;/teams/kmqa/Lists/Deliverables&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
@@ -261,7 +261,7 @@
     <t>_Starting Over;#32;#Simulation;#40;#Videography;#41</t>
   </si>
   <si>
-    <t>_Starting Over;#24;#Adobe - Captivate;#44;#Camtasia;#45;#Snagit;#46;#Go Animate;#55</t>
+    <t>_Starting Over;#24;#Adobe - Captivate;#44;#Camtasia;#45;#Snagit;#46;#Go Animate;#55;#Soney Vegas;#47</t>
   </si>
 </sst>
 </file>

--- a/deliverables.xlsx
+++ b/deliverables.xlsx
@@ -10,7 +10,7 @@
     <sheet name="owssvr" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="owssvr" localSheetId="0" hidden="1">owssvr!$A$1:$E$42</definedName>
+    <definedName name="owssvr__1" localSheetId="0" hidden="1">owssvr!$A$1:$E$42</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -18,7 +18,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\bfarhoudi\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\NMA31CL3\owssvr.iqy" keepAlive="1" name="owssvr" type="5" refreshedVersion="4" minRefreshableVersion="3" saveData="1">
+  <connection id="1" odcFile="C:\Users\bfarhoudi\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\TXQF9HDM\owssvr (1).iqy" keepAlive="1" name="owssvr (1)" type="5" refreshedVersion="4" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;{BC00FD7C-ACD9-4252-8B8E-5F6A3A914ED2}&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;{71557B2C-B9DD-4EA6-B355-882D363C0D13}&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://share.ahsnet.ca/teams/kmqa/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;/teams/kmqa/Lists/Deliverables&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
@@ -261,7 +261,7 @@
     <t>_Starting Over;#32;#Simulation;#40;#Videography;#41</t>
   </si>
   <si>
-    <t>_Starting Over;#24;#Adobe - Captivate;#44;#Camtasia;#45;#Snagit;#46;#Go Animate;#55</t>
+    <t>_Starting Over;#24;#Adobe - Captivate;#44;#Camtasia;#45;#Snagit;#46;#Go Animate;#55;#Soney Vegas;#47</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="owssvr" backgroundRefresh="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="owssvr (1)" backgroundRefresh="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1" name="Deliverables" tableColumnId="1"/>
@@ -832,7 +832,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_owssvr" displayName="Table_owssvr" ref="A1:E42" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_owssvr__1" displayName="Table_owssvr__1" ref="A1:E42" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E42"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="Title" name="Deliverables" queryTableFieldId="1" dataDxfId="2"/>

--- a/deliverables.xlsx
+++ b/deliverables.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="7740"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="owssvr" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="owssvr__1" localSheetId="0" hidden="1">owssvr!$A$1:$E$42</definedName>
+    <definedName name="owssvr__3" localSheetId="0" hidden="1">owssvr!$A$1:$E$42</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -18,7 +18,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\bfarhoudi\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\TXQF9HDM\owssvr (1).iqy" keepAlive="1" name="owssvr (1)" type="5" refreshedVersion="4" minRefreshableVersion="3" saveData="1">
+  <connection id="1" odcFile="C:\Users\bfarhoudi\Downloads\owssvr (3).iqy" keepAlive="1" name="owssvr (3)" type="5" refreshedVersion="4" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;{BC00FD7C-ACD9-4252-8B8E-5F6A3A914ED2}&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;{71557B2C-B9DD-4EA6-B355-882D363C0D13}&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://share.ahsnet.ca/teams/kmqa/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;/teams/kmqa/Lists/Deliverables&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
@@ -195,7 +195,7 @@
     <t>Online Module</t>
   </si>
   <si>
-    <t>_Starting Over;#24;#Adobe eLearning;#35</t>
+    <t>_Starting Over;#24;#Adobe - Captivate;#44</t>
   </si>
   <si>
     <t>Posters</t>
@@ -818,7 +818,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="owssvr (1)" backgroundRefresh="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="owssvr (3)" backgroundRefresh="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1" name="Deliverables" tableColumnId="1"/>
@@ -832,7 +832,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_owssvr__1" displayName="Table_owssvr__1" ref="A1:E42" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_owssvr__3" displayName="Table_owssvr__3" ref="A1:E42" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E42"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="Title" name="Deliverables" queryTableFieldId="1" dataDxfId="2"/>
